--- a/content/A0/5 to-tag/A0.05.sentences_totag.xlsx
+++ b/content/A0/5 to-tag/A0.05.sentences_totag.xlsx
@@ -60,7 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -72,6 +72,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +449,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
@@ -719,16 +722,586 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1"/>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>chunk 1</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>line 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>གཉིས་པ་</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>རྒྱན་ཚིག</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1"/>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>བཅུ་པ་</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>རྒྱན་ཚིག</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1"/>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ལྔ་པ་</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>རྒྱན་ཚིག</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1"/>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>དགུ་པ་</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>རྒྱན་ཚིག</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>chunk 2</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>line 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>དྲུག་པ་</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>རྒྱན་ཚིག</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1"/>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>བདུན་པ་</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>རྒྱན་ཚིག</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1"/>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>ག་ཚོད་</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>དྲི་ཚིག</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1"/>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>ཆུ་ཚོད་</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>དང་པོ་</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>རེད་</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>།</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>མིང་ཚིག</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>རྒྱན་ཚིག</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>བྱ་ཚིག</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>ཚེག་ཤད།</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
-  <dataValidations count="2">
+  <dataValidations count="6">
     <dataValidation sqref="A2 B2 C2 D2 A6 B6 C6 D6 A10 B10 C10 D10 A14 B14 C14 D14" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="" prompt="" type="list">
       <formula1>"མིང་ཚིག,རྒྱན་ཚིག,ཚབ་ཚིག,ཚིག་ཕྲད།,བྱ་ཚིག,བྱ་གྲོགས།,བྱ་མཐའ།,ཁྱད་ཚིག,བསྣན་ཚིག,དྲི་ཚིག,ཚེག་ཤད།"</formula1>
     </dataValidation>
     <dataValidation sqref="A3 B3 C3 D3 A7 B7 C7 D7 A11 B11 C11 D11 A15 B15 C15 D15" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="" prompt="" type="list">
       <formula1>"A0,A1,A2,A2+,B1,B1+,B2,B2+,C1,C1+"</formula1>
     </dataValidation>
+    <dataValidation sqref="A18 B18 C18 D18 A22 B22 C22 D22 A26 B26 C26 D26 A30 B30 C30 D30" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="" prompt="" type="list">
+      <formula1>"མིང་ཚིག,རྒྱན་ཚིག,ཚབ་ཚིག,ཚིག་ཕྲད།,བྱ་ཚིག,བྱ་གྲོགས།,བྱ་མཐའ།,ཁྱད་ཚིག,བསྣན་ཚིག,དྲི་ཚིག,ཚེག་ཤད།"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A19 B19 C19 D19 A23 B23 C23 D23 A27 B27 C27 D27 A31 B31 C31 D31" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="" prompt="" type="list">
+      <formula1>"A0,A1,A2,A2+,B1,B1+,B2,B2+,C1,C1+"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A34 B34 C34 D34 A38 B38 C38 D38 A42 B42 C42 D42 A46 B46 C46 D46" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="" prompt="" type="list">
+      <formula1>"མིང་ཚིག,རྒྱན་ཚིག,ཚབ་ཚིག,ཚིག་ཕྲད།,བྱ་ཚིག,བྱ་གྲོགས།,བྱ་མཐའ།,ཁྱད་ཚིག,བསྣན་ཚིག,དྲི་ཚིག,ཚེག་ཤད།"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A35 B35 C35 D35 A39 B39 C39 D39 A43 B43 C43 D43 A47 B47 C47 D47" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="" prompt="" type="list">
+      <formula1>"A0,A1,A2,A2+,B1,B1+,B2,B2+,C1,C1+"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
